--- a/Input/Medgulf_Nextcare/rateSheet.xlsx
+++ b/Input/Medgulf_Nextcare/rateSheet.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$577</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -112,7 +113,7 @@
     <t xml:space="preserve">Consultations nil co-pay, medicines and diagnostics nil co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultations 20% with AED 50 max, medicines 20% co-pay, diagnostics 10% co-pay</t>
+    <t xml:space="preserve">Consultations 20% with AED 50 max, medicines 20% co-pay, diagnostics 20% co-pay</t>
   </si>
 </sst>
 </file>
@@ -234,6 +235,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -242,7 +247,7 @@
   <dimension ref="A1:J577"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -255,6 +260,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="90.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="9" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,7 +291,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -18722,6 +18728,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J577"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -18729,5 +18736,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>